--- a/documents/CalculationOfFlat/monthly service charge.xlsx
+++ b/documents/CalculationOfFlat/monthly service charge.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Earnings" sheetId="1" r:id="rId1"/>
+    <sheet name="Expenses" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>#Sl</t>
   </si>
@@ -43,16 +43,248 @@
   </si>
   <si>
     <t>Payment Date</t>
+  </si>
+  <si>
+    <t>Md. Miznur Rahman</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Tapan </t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>Romana(Nur Ali)</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>MD. Sirajul Islam</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>Ferdous Alom</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>Md. Jahidul Islam</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>Mr Limon</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>Nur Nabi</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>Shamima Kabir</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>Suraiya Islam</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>Afroza Akter</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>Supriya Roy</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>Mansur Choudhury</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>Mohammad Ali Nahid</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>Mahbubul Islam</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>Laila Sultana</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>Md. Aminul Haque</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>A K M Junaid</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>Zahid Iqbal Moon</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>Rakiba Sultana</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <t>Saleha Khatun</t>
+  </si>
+  <si>
+    <t>6D</t>
+  </si>
+  <si>
+    <t>Abdur Rauf Mridha</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>Mr Pavel</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>Bulbul Ahmed</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>Total Service charge</t>
+  </si>
+  <si>
+    <t>Land Owner service</t>
+  </si>
+  <si>
+    <t>Top floor rent</t>
+  </si>
+  <si>
+    <t>Garage rent</t>
+  </si>
+  <si>
+    <t>Ground floor rent</t>
+  </si>
+  <si>
+    <t>Mr Milon (lift)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total Earnings</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Particulars</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Expense By</t>
+  </si>
+  <si>
+    <t>Salary of Shahamuddin</t>
+  </si>
+  <si>
+    <t>January-2016, salary including mobile bill 100</t>
+  </si>
+  <si>
+    <t>Salary of Goffar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January-2016, salary </t>
+  </si>
+  <si>
+    <t>Roof cleening bill</t>
+  </si>
+  <si>
+    <t>Shahamuddin</t>
+  </si>
+  <si>
+    <t>Total Expenditure</t>
+  </si>
+  <si>
+    <t>Goffars Salary Advance return</t>
+  </si>
+  <si>
+    <t>Cash in hand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,8 +310,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,76 +624,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>42370</v>
+      </c>
+      <c r="I3" s="2">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>42370</v>
+      </c>
+      <c r="I5" s="2">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>42370</v>
+      </c>
+      <c r="I11" s="2">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>42370</v>
+      </c>
+      <c r="I14" s="2">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>42370</v>
+      </c>
+      <c r="I15" s="2">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>42370</v>
+      </c>
+      <c r="I20" s="2">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H21" s="1">
+        <v>42370</v>
+      </c>
+      <c r="I21" s="2">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H23" s="1">
+        <v>42370</v>
+      </c>
+      <c r="I23" s="2">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H24" s="1">
+        <v>42370</v>
+      </c>
+      <c r="I24" s="2">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H25" s="1">
+        <v>42370</v>
+      </c>
+      <c r="I25" s="2">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="5">
+        <f>SUM(G2:G25)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="6">
+        <v>6050</v>
+      </c>
+      <c r="H29" s="1">
+        <v>42370</v>
+      </c>
+      <c r="I29" s="2">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="7">
+        <f>SUM(G27:G34)</f>
+        <v>27050</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="9"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="9">
+        <v>8600</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="9">
+        <v>7500</v>
+      </c>
+      <c r="E3" s="2">
+        <v>42523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="9">
+        <v>351</v>
+      </c>
+      <c r="E4" s="2">
+        <v>42523</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="8">
+        <f>SUM(D2:D23)</f>
+        <v>16451</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>27050</v>
+      </c>
+      <c r="B2" s="11">
+        <v>16450</v>
+      </c>
+      <c r="C2" s="11">
+        <f>A2-B2</f>
+        <v>10600</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/CalculationOfFlat/monthly service charge.xlsx
+++ b/documents/CalculationOfFlat/monthly service charge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Earnings" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>#Sl</t>
   </si>
@@ -27,15 +27,6 @@
     <t>Flate No</t>
   </si>
   <si>
-    <t>Servic Charge</t>
-  </si>
-  <si>
-    <t>Dish Bill</t>
-  </si>
-  <si>
-    <t>Cleener Bill</t>
-  </si>
-  <si>
     <t>Total Amount</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
   </si>
   <si>
     <t>7C</t>
-  </si>
-  <si>
-    <t>Total Service charge</t>
   </si>
   <si>
     <t>Land Owner service</t>
@@ -263,9 +251,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +273,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,19 +312,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,24 +627,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -651,7 +654,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -660,458 +663,603 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="6">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
         <v>2000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="E3" s="1">
         <v>42370</v>
       </c>
-      <c r="I3" s="2">
+      <c r="F3" s="2">
         <v>42491</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="6">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5">
         <v>2000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="E5" s="1">
         <v>42370</v>
       </c>
-      <c r="I5" s="2">
+      <c r="F5" s="2">
         <v>42491</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="6">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5">
         <v>2000</v>
       </c>
-      <c r="H11" s="1">
+      <c r="E11" s="1">
         <v>42370</v>
       </c>
-      <c r="I11" s="2">
+      <c r="F11" s="2">
         <v>42491</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="6">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5">
         <v>2000</v>
       </c>
-      <c r="H14" s="1">
+      <c r="E14" s="1">
         <v>42370</v>
       </c>
-      <c r="I14" s="2">
+      <c r="F14" s="2">
         <v>42491</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="6">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5">
         <v>2000</v>
       </c>
-      <c r="H15" s="1">
+      <c r="E15" s="1">
         <v>42370</v>
       </c>
-      <c r="I15" s="2">
+      <c r="F15" s="2">
         <v>42491</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="6">
+        <v>43</v>
+      </c>
+      <c r="D20" s="5">
         <v>2000</v>
       </c>
-      <c r="H20" s="1">
+      <c r="E20" s="1">
         <v>42370</v>
       </c>
-      <c r="I20" s="2">
+      <c r="F20" s="2">
         <v>42491</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="6">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5">
         <v>2000</v>
       </c>
-      <c r="H21" s="1">
+      <c r="E21" s="1">
         <v>42370</v>
       </c>
-      <c r="I21" s="2">
+      <c r="F21" s="2">
         <v>42491</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="6">
+        <v>49</v>
+      </c>
+      <c r="D23" s="5">
         <v>2000</v>
       </c>
-      <c r="H23" s="1">
+      <c r="E23" s="1">
         <v>42370</v>
       </c>
-      <c r="I23" s="2">
+      <c r="F23" s="2">
         <v>42491</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="6">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5">
         <v>2000</v>
       </c>
-      <c r="H24" s="1">
+      <c r="E24" s="1">
         <v>42370</v>
       </c>
-      <c r="I24" s="2">
+      <c r="F24" s="2">
         <v>42491</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="6">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5">
         <v>2000</v>
       </c>
-      <c r="H25" s="1">
+      <c r="E25" s="1">
         <v>42370</v>
       </c>
-      <c r="I25" s="2">
+      <c r="F25" s="2">
         <v>42491</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="5">
-        <f>SUM(G2:G25)</f>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="4">
+        <f>SUM(D2:D25)</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="6">
+        <v>55</v>
+      </c>
+      <c r="D29" s="5">
         <v>6050</v>
       </c>
-      <c r="H29" s="1">
+      <c r="E29" s="1">
         <v>42370</v>
       </c>
-      <c r="I29" s="2">
+      <c r="F29" s="2">
         <v>42491</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="6">
+        <v>74</v>
+      </c>
+      <c r="D34" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="4" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="10">
+        <f>SUM(D27:D34)</f>
+        <v>27050</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I36" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I37" s="12">
+        <f>D35</f>
+        <v>27050</v>
+      </c>
+      <c r="J37" s="12">
+        <f>D63</f>
+        <v>16451</v>
+      </c>
+      <c r="K37" s="12">
+        <f>I37-J37</f>
+        <v>10599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="7">
-        <f>SUM(G27:G34)</f>
-        <v>27050</v>
+      <c r="E40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="7">
+        <v>8600</v>
+      </c>
+      <c r="E41" s="2">
+        <v>42523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="7">
+        <v>7500</v>
+      </c>
+      <c r="E42" s="2">
+        <v>42523</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="7">
+        <v>351</v>
+      </c>
+      <c r="E43" s="2">
+        <v>42523</v>
+      </c>
+      <c r="F43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="6">
+        <f>SUM(D41:D62)</f>
+        <v>16451</v>
       </c>
     </row>
   </sheetData>
@@ -1125,35 +1273,35 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D24"/>
+      <selection sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="9"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1161,12 +1309,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="9">
+        <v>68</v>
+      </c>
+      <c r="D2" s="7">
         <v>8600</v>
       </c>
       <c r="E2" s="2">
@@ -1178,12 +1326,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="9">
+        <v>70</v>
+      </c>
+      <c r="D3" s="7">
         <v>7500</v>
       </c>
       <c r="E3" s="2">
@@ -1195,23 +1343,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="9">
+        <v>71</v>
+      </c>
+      <c r="D4" s="7">
         <v>351</v>
       </c>
       <c r="E4" s="2">
         <v>42523</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="6">
         <f>SUM(D2:D23)</f>
         <v>16451</v>
       </c>
@@ -1225,36 +1373,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>79</v>
+      <c r="A1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>27050</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>16450</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <f>A2-B2</f>
         <v>10600</v>
       </c>

--- a/documents/CalculationOfFlat/monthly service charge.xlsx
+++ b/documents/CalculationOfFlat/monthly service charge.xlsx
@@ -10,13 +10,17 @@
     <sheet name="Earnings" sheetId="1" r:id="rId1"/>
     <sheet name="Expenses" sheetId="2" r:id="rId2"/>
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Earnings!$A$1:$K$26</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t>#Sl</t>
   </si>
@@ -244,6 +248,36 @@
   </si>
   <si>
     <t>Cash in hand</t>
+  </si>
+  <si>
+    <t>Current bill</t>
+  </si>
+  <si>
+    <t>Wasa</t>
+  </si>
+  <si>
+    <t>Motor repair</t>
+  </si>
+  <si>
+    <t>Cleener</t>
+  </si>
+  <si>
+    <t>Night Gurd</t>
+  </si>
+  <si>
+    <t>Transport Shamuddin</t>
+  </si>
+  <si>
+    <t>Md Nazrul Islam</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>Momena Salary</t>
+  </si>
+  <si>
+    <t>Khata</t>
   </si>
 </sst>
 </file>
@@ -627,10 +661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K63"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -673,6 +708,9 @@
       </c>
       <c r="C2" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2000</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
@@ -697,7 +735,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -706,6 +744,9 @@
       </c>
       <c r="C4" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,7 +769,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -738,8 +779,11 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -749,8 +793,11 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -760,8 +807,11 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -771,8 +821,11 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -803,7 +856,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -814,7 +867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -823,6 +876,9 @@
       </c>
       <c r="C13" t="s">
         <v>29</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -845,99 +901,107 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D15" s="5">
         <v>2000</v>
       </c>
-      <c r="E15" s="1">
-        <v>42370</v>
-      </c>
-      <c r="F15" s="2">
-        <v>42491</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>42370</v>
+      </c>
+      <c r="F16" s="2">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="D17" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="D18" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="D19" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
       <c r="D20" s="5">
         <v>2000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>42370</v>
-      </c>
-      <c r="F20" s="2">
-        <v>42491</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5">
         <v>2000</v>
@@ -951,44 +1015,47 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>42370</v>
+      </c>
+      <c r="F22" s="2">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
       <c r="D23" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E23" s="1">
-        <v>42370</v>
-      </c>
-      <c r="F23" s="2">
-        <v>42491</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5">
         <v>2000</v>
@@ -1002,13 +1069,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="5">
         <v>2000</v>
@@ -1020,160 +1087,169 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="4">
-        <f>SUM(D2:D25)</f>
-        <v>20000</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>42370</v>
+      </c>
+      <c r="F26" s="2">
+        <v>42491</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
+      <c r="D28" s="4">
+        <f>SUM(D2:D26)</f>
+        <v>46200</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="5">
-        <v>6050</v>
-      </c>
-      <c r="E29" s="1">
-        <v>42370</v>
-      </c>
-      <c r="F29" s="2">
-        <v>42491</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="D30" s="5">
+        <v>6050</v>
+      </c>
+      <c r="E30" s="1">
+        <v>42370</v>
+      </c>
+      <c r="F30" s="2">
+        <v>42491</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="D31" s="5">
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D35" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="10">
-        <f>SUM(D27:D34)</f>
-        <v>27050</v>
-      </c>
-    </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I36" s="11" t="s">
+      <c r="D36" s="10">
+        <f>SUM(D28:D35)</f>
+        <v>54750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I37" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J37" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K37" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I37" s="12">
-        <f>D35</f>
-        <v>27050</v>
-      </c>
-      <c r="J37" s="12">
-        <f>D63</f>
-        <v>16451</v>
-      </c>
-      <c r="K37" s="12">
-        <f>I37-J37</f>
-        <v>10599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I38" s="12">
+        <f>D36</f>
+        <v>54750</v>
+      </c>
+      <c r="J38" s="12">
+        <f>D64</f>
+        <v>40598</v>
+      </c>
+      <c r="K38" s="12">
+        <f>I38-J38</f>
+        <v>14152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="7">
-        <v>8600</v>
-      </c>
-      <c r="E41" s="2">
-        <v>42523</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D42" s="7">
-        <v>7500</v>
+        <v>8600</v>
       </c>
       <c r="E42" s="2">
         <v>42523</v>
@@ -1181,88 +1257,176 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
       </c>
       <c r="D43" s="7">
-        <v>351</v>
+        <v>7500</v>
       </c>
       <c r="E43" s="2">
         <v>42523</v>
       </c>
-      <c r="F43" t="s">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="7">
+        <v>351</v>
+      </c>
+      <c r="E44" s="2">
+        <v>42523</v>
+      </c>
+      <c r="F44" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="7"/>
-    </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="7"/>
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="7">
+        <v>9504</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D46" s="7"/>
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="7">
+        <v>4643</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D47" s="7"/>
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="7">
+        <v>4220</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="3" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="6">
-        <f>SUM(D41:D62)</f>
-        <v>16451</v>
+      <c r="D64" s="6">
+        <f>SUM(D42:D63)</f>
+        <v>40598</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K26">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1273,7 +1437,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F24"/>
+      <selection activeCell="I13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,4 +1574,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16732</v>
+      </c>
+      <c r="B2">
+        <v>10599</v>
+      </c>
+      <c r="C2">
+        <f>A2-B2-2000</f>
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>51750</v>
+      </c>
+      <c r="B3">
+        <v>26050</v>
+      </c>
+      <c r="C3">
+        <f>A3-B3</f>
+        <v>25700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/CalculationOfFlat/monthly service charge.xlsx
+++ b/documents/CalculationOfFlat/monthly service charge.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>#Sl</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Khata</t>
+  </si>
+  <si>
+    <t>3flat</t>
   </si>
 </sst>
 </file>
@@ -661,11 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -712,7 +714,9 @@
       <c r="D2" s="5">
         <v>2000</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>42370</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,7 +739,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -747,6 +751,9 @@
       </c>
       <c r="D4" s="5">
         <v>2000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42370</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -769,7 +776,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -782,8 +789,11 @@
       <c r="D6" s="5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -796,8 +806,11 @@
       <c r="D7" s="5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -810,8 +823,11 @@
       <c r="D8" s="5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -824,8 +840,11 @@
       <c r="D9" s="5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -856,7 +875,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -866,8 +885,14 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -879,6 +904,9 @@
       </c>
       <c r="D13" s="5">
         <v>2000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>42370</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -901,7 +929,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -914,7 +942,9 @@
       <c r="D15" s="5">
         <v>2000</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>42370</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -937,7 +967,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -950,8 +980,11 @@
       <c r="D17" s="5">
         <v>2500</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -964,8 +997,11 @@
       <c r="D18" s="5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -978,8 +1014,11 @@
       <c r="D19" s="5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -991,6 +1030,9 @@
       </c>
       <c r="D20" s="5">
         <v>2000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>42370</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,7 +1075,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1045,6 +1087,9 @@
       </c>
       <c r="D23" s="5">
         <v>1700</v>
+      </c>
+      <c r="E23" s="1">
+        <v>42370</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,7 +1155,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" s="4">
         <f>SUM(D2:D26)</f>
-        <v>46200</v>
+        <v>48200</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1120,6 +1165,15 @@
       <c r="B29" t="s">
         <v>54</v>
       </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>42370</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1190,7 +1244,7 @@
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D36" s="10">
         <f>SUM(D28:D35)</f>
-        <v>54750</v>
+        <v>59750</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1207,7 +1261,7 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I38" s="12">
         <f>D36</f>
-        <v>54750</v>
+        <v>59750</v>
       </c>
       <c r="J38" s="12">
         <f>D64</f>
@@ -1215,7 +1269,7 @@
       </c>
       <c r="K38" s="12">
         <f>I38-J38</f>
-        <v>14152</v>
+        <v>19152</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1420,13 +1474,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K26">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/documents/CalculationOfFlat/monthly service charge.xlsx
+++ b/documents/CalculationOfFlat/monthly service charge.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>#Sl</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>3flat</t>
+  </si>
+  <si>
+    <t>Preveous Amount</t>
+  </si>
+  <si>
+    <t>dish bill dec</t>
   </si>
 </sst>
 </file>
@@ -664,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,6 +685,7 @@
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1211,7 +1218,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1222,15 +1229,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1241,13 +1254,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D36" s="10">
         <f>SUM(D28:D35)</f>
-        <v>59750</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I37" s="11" t="s">
         <v>60</v>
       </c>
@@ -1257,22 +1270,28 @@
       <c r="K37" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M37" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I38" s="12">
         <f>D36</f>
-        <v>59750</v>
+        <v>65750</v>
       </c>
       <c r="J38" s="12">
         <f>D64</f>
         <v>40598</v>
       </c>
       <c r="K38" s="12">
-        <f>I38-J38</f>
-        <v>19152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <f>I38-J38+M38</f>
+        <v>25152</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
@@ -1292,7 +1311,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1309,7 +1328,7 @@
         <v>42523</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1326,7 +1345,7 @@
         <v>42523</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1343,7 +1362,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1354,7 +1373,7 @@
         <v>9504</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1365,7 +1384,7 @@
         <v>4643</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1376,7 +1395,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
